--- a/Data/csv/ESRD_ACP_6months.xlsx
+++ b/Data/csv/ESRD_ACP_6months.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="99">
   <si>
     <t>HN</t>
   </si>
@@ -311,12 +311,21 @@
   <si>
     <t>HT,DM</t>
   </si>
+  <si>
+    <t>HT,DLP,stroke</t>
+  </si>
+  <si>
+    <t>HT,DLP,DM,asthma,spondyosis</t>
+  </si>
+  <si>
+    <t>DM,osteoporosis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -409,8 +418,25 @@
       <color rgb="FFCC0000"/>
       <name val="AngsanaUPC"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +455,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -573,11 +611,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -862,6 +1035,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,13 +1364,13 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH1009"/>
+  <dimension ref="A1:AH1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="P86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K91" sqref="K91"/>
+      <selection pane="bottomRight" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8825,7 +9046,7 @@
       <c r="AG98" s="4"/>
       <c r="AH98" s="4"/>
     </row>
-    <row r="99" spans="1:34" ht="23.4">
+    <row r="99" spans="1:34" ht="24" thickBot="1">
       <c r="A99" s="34">
         <v>1231222</v>
       </c>
@@ -8903,293 +9124,549 @@
       <c r="AG99" s="4"/>
       <c r="AH99" s="4"/>
     </row>
-    <row r="100" spans="1:34" ht="13.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
-      <c r="T100" s="4"/>
-      <c r="U100" s="4"/>
-      <c r="V100" s="4"/>
-      <c r="W100" s="4"/>
-      <c r="X100" s="4"/>
-      <c r="Y100" s="4"/>
-      <c r="Z100" s="4"/>
-      <c r="AA100" s="4"/>
-      <c r="AB100" s="4"/>
-      <c r="AC100" s="4"/>
-      <c r="AD100" s="4"/>
-      <c r="AE100" s="4"/>
-      <c r="AF100" s="4"/>
-      <c r="AG100" s="4"/>
-      <c r="AH100" s="4"/>
-    </row>
-    <row r="101" spans="1:34" ht="13.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
-      <c r="Y101" s="4"/>
-      <c r="Z101" s="4"/>
-      <c r="AA101" s="4"/>
-      <c r="AB101" s="4"/>
-      <c r="AC101" s="4"/>
-      <c r="AD101" s="4"/>
-      <c r="AE101" s="4"/>
-      <c r="AF101" s="4"/>
-      <c r="AG101" s="4"/>
-      <c r="AH101" s="4"/>
-    </row>
-    <row r="102" spans="1:34" ht="13.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
-      <c r="V102" s="4"/>
-      <c r="W102" s="4"/>
-      <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="Z102" s="4"/>
-      <c r="AA102" s="4"/>
-      <c r="AB102" s="4"/>
-      <c r="AC102" s="4"/>
-      <c r="AD102" s="4"/>
-      <c r="AE102" s="4"/>
-      <c r="AF102" s="4"/>
-      <c r="AG102" s="4"/>
-      <c r="AH102" s="4"/>
-    </row>
-    <row r="103" spans="1:34" ht="13.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
-      <c r="Y103" s="4"/>
-      <c r="Z103" s="4"/>
-      <c r="AA103" s="4"/>
-      <c r="AB103" s="4"/>
-      <c r="AC103" s="4"/>
-      <c r="AD103" s="4"/>
-      <c r="AE103" s="4"/>
-      <c r="AF103" s="4"/>
-      <c r="AG103" s="4"/>
-      <c r="AH103" s="4"/>
-    </row>
-    <row r="104" spans="1:34" ht="13.2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
-      <c r="Y104" s="4"/>
-      <c r="Z104" s="4"/>
-      <c r="AA104" s="4"/>
-      <c r="AB104" s="4"/>
-      <c r="AC104" s="4"/>
-      <c r="AD104" s="4"/>
-      <c r="AE104" s="4"/>
-      <c r="AF104" s="4"/>
-      <c r="AG104" s="4"/>
-      <c r="AH104" s="4"/>
-    </row>
-    <row r="105" spans="1:34" ht="13.2">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
-      <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
-      <c r="Y105" s="4"/>
-      <c r="Z105" s="4"/>
-      <c r="AA105" s="4"/>
-      <c r="AB105" s="4"/>
-      <c r="AC105" s="4"/>
-      <c r="AD105" s="4"/>
-      <c r="AE105" s="4"/>
-      <c r="AF105" s="4"/>
-      <c r="AG105" s="4"/>
-      <c r="AH105" s="4"/>
-    </row>
-    <row r="106" spans="1:34" ht="13.2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
-      <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
-      <c r="Y106" s="4"/>
-      <c r="Z106" s="4"/>
-      <c r="AA106" s="4"/>
-      <c r="AB106" s="4"/>
-      <c r="AC106" s="4"/>
-      <c r="AD106" s="4"/>
-      <c r="AE106" s="4"/>
-      <c r="AF106" s="4"/>
-      <c r="AG106" s="4"/>
-      <c r="AH106" s="4"/>
-    </row>
-    <row r="107" spans="1:34" ht="13.2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-      <c r="J107" s="4"/>
-      <c r="K107" s="4"/>
-      <c r="L107" s="4"/>
-      <c r="M107" s="4"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
-      <c r="P107" s="4"/>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="4"/>
-      <c r="S107" s="4"/>
-      <c r="T107" s="4"/>
-      <c r="U107" s="4"/>
-      <c r="V107" s="4"/>
-      <c r="W107" s="4"/>
-      <c r="X107" s="4"/>
-      <c r="Y107" s="4"/>
-      <c r="Z107" s="4"/>
-      <c r="AA107" s="4"/>
-      <c r="AB107" s="4"/>
-      <c r="AC107" s="4"/>
-      <c r="AD107" s="4"/>
-      <c r="AE107" s="4"/>
-      <c r="AF107" s="4"/>
-      <c r="AG107" s="4"/>
-      <c r="AH107" s="4"/>
+    <row r="100" spans="1:34" ht="13.8" thickBot="1">
+      <c r="A100" s="100">
+        <v>1649986</v>
+      </c>
+      <c r="B100" s="101">
+        <v>2025</v>
+      </c>
+      <c r="C100" s="101">
+        <v>1</v>
+      </c>
+      <c r="D100" s="101">
+        <v>100</v>
+      </c>
+      <c r="E100" s="101">
+        <v>68</v>
+      </c>
+      <c r="F100" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" s="101">
+        <v>17.7</v>
+      </c>
+      <c r="I100" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="J100" s="103"/>
+      <c r="K100" s="103"/>
+      <c r="L100" s="103"/>
+      <c r="M100" s="103"/>
+      <c r="N100" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="O100" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="P100" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q100" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="R100" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="S100" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="T100" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="U100" s="103"/>
+      <c r="V100" s="104">
+        <v>3427</v>
+      </c>
+      <c r="W100" s="105"/>
+      <c r="X100" s="105"/>
+      <c r="Y100" s="105"/>
+      <c r="Z100" s="105"/>
+      <c r="AA100" s="105"/>
+      <c r="AB100" s="105"/>
+      <c r="AC100" s="105"/>
+      <c r="AD100" s="105"/>
+      <c r="AE100" s="105"/>
+      <c r="AF100" s="105"/>
+      <c r="AG100" s="105"/>
+      <c r="AH100" s="105"/>
+    </row>
+    <row r="101" spans="1:34" ht="27" thickBot="1">
+      <c r="A101" s="106">
+        <v>1154231</v>
+      </c>
+      <c r="B101" s="107">
+        <v>2025</v>
+      </c>
+      <c r="C101" s="107">
+        <v>1</v>
+      </c>
+      <c r="D101" s="107">
+        <v>70</v>
+      </c>
+      <c r="E101" s="107">
+        <v>89</v>
+      </c>
+      <c r="F101" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="107">
+        <v>13.4</v>
+      </c>
+      <c r="I101" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="J101" s="109"/>
+      <c r="K101" s="109"/>
+      <c r="L101" s="109"/>
+      <c r="M101" s="109"/>
+      <c r="N101" s="107" t="s">
+        <v>97</v>
+      </c>
+      <c r="O101" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="P101" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q101" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="R101" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="S101" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="T101" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="U101" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="V101" s="110">
+        <v>6001</v>
+      </c>
+      <c r="W101" s="105"/>
+      <c r="X101" s="105"/>
+      <c r="Y101" s="105"/>
+      <c r="Z101" s="105"/>
+      <c r="AA101" s="105"/>
+      <c r="AB101" s="105"/>
+      <c r="AC101" s="105"/>
+      <c r="AD101" s="105"/>
+      <c r="AE101" s="105"/>
+      <c r="AF101" s="105"/>
+      <c r="AG101" s="105"/>
+      <c r="AH101" s="105"/>
+    </row>
+    <row r="102" spans="1:34" ht="13.8" thickBot="1">
+      <c r="A102" s="111">
+        <v>977581</v>
+      </c>
+      <c r="B102" s="112">
+        <v>2025</v>
+      </c>
+      <c r="C102" s="112">
+        <v>1</v>
+      </c>
+      <c r="D102" s="112">
+        <v>50</v>
+      </c>
+      <c r="E102" s="112">
+        <v>94</v>
+      </c>
+      <c r="F102" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" s="112">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I102" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" s="114"/>
+      <c r="K102" s="114"/>
+      <c r="L102" s="114"/>
+      <c r="M102" s="114"/>
+      <c r="N102" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="O102" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="P102" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q102" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="R102" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="S102" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="T102" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="U102" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="V102" s="115">
+        <v>8856</v>
+      </c>
+      <c r="W102" s="105"/>
+      <c r="X102" s="105"/>
+      <c r="Y102" s="105"/>
+      <c r="Z102" s="105"/>
+      <c r="AA102" s="105"/>
+      <c r="AB102" s="105"/>
+      <c r="AC102" s="105"/>
+      <c r="AD102" s="105"/>
+      <c r="AE102" s="105"/>
+      <c r="AF102" s="105"/>
+      <c r="AG102" s="105"/>
+      <c r="AH102" s="105"/>
+    </row>
+    <row r="103" spans="1:34" ht="13.8" thickBot="1">
+      <c r="A103" s="106">
+        <v>1668835</v>
+      </c>
+      <c r="B103" s="107">
+        <v>2025</v>
+      </c>
+      <c r="C103" s="107">
+        <v>1</v>
+      </c>
+      <c r="D103" s="107">
+        <v>70</v>
+      </c>
+      <c r="E103" s="107">
+        <v>93</v>
+      </c>
+      <c r="F103" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="G103" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="107">
+        <v>20.6</v>
+      </c>
+      <c r="I103" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="J103" s="109"/>
+      <c r="K103" s="109"/>
+      <c r="L103" s="109"/>
+      <c r="M103" s="109"/>
+      <c r="N103" s="107" t="s">
+        <v>98</v>
+      </c>
+      <c r="O103" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="P103" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q103" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="R103" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="S103" s="109"/>
+      <c r="T103" s="109"/>
+      <c r="U103" s="109"/>
+      <c r="V103" s="110">
+        <v>24209</v>
+      </c>
+      <c r="W103" s="105"/>
+      <c r="X103" s="105"/>
+      <c r="Y103" s="105"/>
+      <c r="Z103" s="105"/>
+      <c r="AA103" s="105"/>
+      <c r="AB103" s="105"/>
+      <c r="AC103" s="105"/>
+      <c r="AD103" s="105"/>
+      <c r="AE103" s="105"/>
+      <c r="AF103" s="105"/>
+      <c r="AG103" s="105"/>
+      <c r="AH103" s="105"/>
+    </row>
+    <row r="104" spans="1:34" ht="13.8" thickBot="1">
+      <c r="A104" s="111">
+        <v>861346</v>
+      </c>
+      <c r="B104" s="112">
+        <v>2025</v>
+      </c>
+      <c r="C104" s="112">
+        <v>1</v>
+      </c>
+      <c r="D104" s="112">
+        <v>90</v>
+      </c>
+      <c r="E104" s="112">
+        <v>85</v>
+      </c>
+      <c r="F104" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" s="112">
+        <v>11</v>
+      </c>
+      <c r="I104" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J104" s="114"/>
+      <c r="K104" s="114"/>
+      <c r="L104" s="114"/>
+      <c r="M104" s="114"/>
+      <c r="N104" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="O104" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="P104" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q104" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="R104" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="S104" s="114"/>
+      <c r="T104" s="114"/>
+      <c r="U104" s="114"/>
+      <c r="V104" s="115">
+        <v>6704</v>
+      </c>
+      <c r="W104" s="105"/>
+      <c r="X104" s="105"/>
+      <c r="Y104" s="105"/>
+      <c r="Z104" s="105"/>
+      <c r="AA104" s="105"/>
+      <c r="AB104" s="105"/>
+      <c r="AC104" s="105"/>
+      <c r="AD104" s="105"/>
+      <c r="AE104" s="105"/>
+      <c r="AF104" s="105"/>
+      <c r="AG104" s="105"/>
+      <c r="AH104" s="105"/>
+    </row>
+    <row r="105" spans="1:34" ht="13.8" thickBot="1">
+      <c r="A105" s="106">
+        <v>1551335</v>
+      </c>
+      <c r="B105" s="107">
+        <v>2025</v>
+      </c>
+      <c r="C105" s="107">
+        <v>1</v>
+      </c>
+      <c r="D105" s="107">
+        <v>50</v>
+      </c>
+      <c r="E105" s="107">
+        <v>81</v>
+      </c>
+      <c r="F105" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" s="107">
+        <v>22.8</v>
+      </c>
+      <c r="I105" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="J105" s="109"/>
+      <c r="K105" s="109"/>
+      <c r="L105" s="109"/>
+      <c r="M105" s="109"/>
+      <c r="N105" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="O105" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="P105" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q105" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="R105" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="S105" s="109"/>
+      <c r="T105" s="109"/>
+      <c r="U105" s="109"/>
+      <c r="V105" s="110">
+        <v>4613</v>
+      </c>
+      <c r="W105" s="105"/>
+      <c r="X105" s="105"/>
+      <c r="Y105" s="105"/>
+      <c r="Z105" s="105"/>
+      <c r="AA105" s="105"/>
+      <c r="AB105" s="105"/>
+      <c r="AC105" s="105"/>
+      <c r="AD105" s="105"/>
+      <c r="AE105" s="105"/>
+      <c r="AF105" s="105"/>
+      <c r="AG105" s="105"/>
+      <c r="AH105" s="105"/>
+    </row>
+    <row r="106" spans="1:34" ht="13.8" thickBot="1">
+      <c r="A106" s="111">
+        <v>671822</v>
+      </c>
+      <c r="B106" s="112">
+        <v>2025</v>
+      </c>
+      <c r="C106" s="112">
+        <v>1</v>
+      </c>
+      <c r="D106" s="112">
+        <v>90</v>
+      </c>
+      <c r="E106" s="112">
+        <v>81</v>
+      </c>
+      <c r="F106" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" s="112" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="112">
+        <v>15.1</v>
+      </c>
+      <c r="I106" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="J106" s="114"/>
+      <c r="K106" s="114"/>
+      <c r="L106" s="114"/>
+      <c r="M106" s="114"/>
+      <c r="N106" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="O106" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="P106" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q106" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="R106" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="S106" s="114"/>
+      <c r="T106" s="114"/>
+      <c r="U106" s="114"/>
+      <c r="V106" s="115">
+        <v>1939</v>
+      </c>
+      <c r="W106" s="105"/>
+      <c r="X106" s="105"/>
+      <c r="Y106" s="105"/>
+      <c r="Z106" s="105"/>
+      <c r="AA106" s="105"/>
+      <c r="AB106" s="105"/>
+      <c r="AC106" s="105"/>
+      <c r="AD106" s="105"/>
+      <c r="AE106" s="105"/>
+      <c r="AF106" s="105"/>
+      <c r="AG106" s="105"/>
+      <c r="AH106" s="105"/>
+    </row>
+    <row r="107" spans="1:34" ht="13.8" thickBot="1">
+      <c r="A107" s="106">
+        <v>835295</v>
+      </c>
+      <c r="B107" s="107">
+        <v>2025</v>
+      </c>
+      <c r="C107" s="107">
+        <v>1</v>
+      </c>
+      <c r="D107" s="107">
+        <v>70</v>
+      </c>
+      <c r="E107" s="107">
+        <v>70</v>
+      </c>
+      <c r="F107" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" s="107">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I107" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="J107" s="109"/>
+      <c r="K107" s="109"/>
+      <c r="L107" s="109"/>
+      <c r="M107" s="109"/>
+      <c r="N107" s="107" t="s">
+        <v>46</v>
+      </c>
+      <c r="O107" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="P107" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q107" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="R107" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="S107" s="109"/>
+      <c r="T107" s="109"/>
+      <c r="U107" s="109"/>
+      <c r="V107" s="110">
+        <v>9996</v>
+      </c>
+      <c r="W107" s="105"/>
+      <c r="X107" s="105"/>
+      <c r="Y107" s="105"/>
+      <c r="Z107" s="105"/>
+      <c r="AA107" s="105"/>
+      <c r="AB107" s="105"/>
+      <c r="AC107" s="105"/>
+      <c r="AD107" s="105"/>
+      <c r="AE107" s="105"/>
+      <c r="AF107" s="105"/>
+      <c r="AG107" s="105"/>
+      <c r="AH107" s="105"/>
     </row>
     <row r="108" spans="1:34" ht="13.2">
       <c r="A108" s="4"/>
@@ -41663,6 +42140,42 @@
       <c r="AG1009" s="4"/>
       <c r="AH1009" s="4"/>
     </row>
+    <row r="1010" spans="1:34" ht="13.2">
+      <c r="A1010" s="4"/>
+      <c r="B1010" s="4"/>
+      <c r="C1010" s="4"/>
+      <c r="D1010" s="4"/>
+      <c r="E1010" s="4"/>
+      <c r="F1010" s="4"/>
+      <c r="G1010" s="4"/>
+      <c r="H1010" s="4"/>
+      <c r="I1010" s="4"/>
+      <c r="J1010" s="4"/>
+      <c r="K1010" s="4"/>
+      <c r="L1010" s="4"/>
+      <c r="M1010" s="4"/>
+      <c r="N1010" s="4"/>
+      <c r="O1010" s="4"/>
+      <c r="P1010" s="4"/>
+      <c r="Q1010" s="4"/>
+      <c r="R1010" s="4"/>
+      <c r="S1010" s="4"/>
+      <c r="T1010" s="4"/>
+      <c r="U1010" s="4"/>
+      <c r="V1010" s="4"/>
+      <c r="W1010" s="4"/>
+      <c r="X1010" s="4"/>
+      <c r="Y1010" s="4"/>
+      <c r="Z1010" s="4"/>
+      <c r="AA1010" s="4"/>
+      <c r="AB1010" s="4"/>
+      <c r="AC1010" s="4"/>
+      <c r="AD1010" s="4"/>
+      <c r="AE1010" s="4"/>
+      <c r="AF1010" s="4"/>
+      <c r="AG1010" s="4"/>
+      <c r="AH1010" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" sqref="M2:M99">
@@ -41689,9 +42202,9 @@
   </dataValidations>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>